--- a/Prop_Sims/Component_State_Sequence.xlsx
+++ b/Prop_Sims/Component_State_Sequence.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
